--- a/data_year/zb/对外经济贸易/同各国(地区)海关货物进出口总额/进出口总额/中国同大洋洲各国(地区)进出口总额.xlsx
+++ b/data_year/zb/对外经济贸易/同各国(地区)海关货物进出口总额/进出口总额/中国同大洋洲各国(地区)进出口总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,1565 +558,969 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>841.7</v>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>1139.1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>274.3</v>
+      </c>
       <c r="F2" t="n">
-        <v>978757</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>9903469.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>668.2</v>
+      </c>
       <c r="H2" t="n">
-        <v>22559</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>112964.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>199.7</v>
+      </c>
       <c r="J2" t="n">
-        <v>25</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>489.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31546.8</v>
+      </c>
       <c r="L2" t="n">
-        <v>1543</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>12858.7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46388.2</v>
+      </c>
       <c r="N2" t="n">
-        <v>105430</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>652741.1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>976</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3270.9</v>
+      </c>
       <c r="Q2" t="n">
-        <v>845288</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+        <v>8834231.6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>28</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2326.4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>329.4</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7007.5</v>
+      </c>
       <c r="X2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>22.8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>195127</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1493.9193</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.5482</v>
+      </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>1316.5898</v>
       </c>
       <c r="E3" t="n">
-        <v>544</v>
+        <v>209.8277</v>
       </c>
       <c r="F3" t="n">
-        <v>1036728</v>
+        <v>12982165.1181</v>
       </c>
       <c r="G3" t="n">
-        <v>187</v>
+        <v>502.8129</v>
       </c>
       <c r="H3" t="n">
-        <v>14151</v>
+        <v>126824.4653</v>
       </c>
       <c r="I3" t="n">
-        <v>163</v>
+        <v>119.9006</v>
       </c>
       <c r="J3" t="n">
-        <v>38</v>
+        <v>570.4239</v>
       </c>
       <c r="K3" t="n">
-        <v>696</v>
+        <v>37948.32739999999</v>
       </c>
       <c r="L3" t="n">
-        <v>2633</v>
+        <v>17240.3165</v>
       </c>
       <c r="M3" t="n">
-        <v>367</v>
+        <v>21600.9027</v>
       </c>
       <c r="N3" t="n">
-        <v>117171</v>
+        <v>871801.0223</v>
       </c>
       <c r="O3" t="n">
-        <v>118</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
+        <v>1332.4365</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4342.7907</v>
+      </c>
       <c r="Q3" t="n">
-        <v>899683</v>
+        <v>11658308.7116</v>
       </c>
       <c r="R3" t="n">
-        <v>39</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
+        <v>19.3546</v>
+      </c>
+      <c r="S3" t="n">
+        <v>56.3034</v>
+      </c>
       <c r="T3" t="n">
-        <v>147</v>
+        <v>13625.3948</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>19.5909</v>
       </c>
       <c r="V3" t="n">
-        <v>319</v>
+        <v>345.1841</v>
       </c>
       <c r="W3" t="n">
-        <v>232</v>
+        <v>3784.3261</v>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>35.7568</v>
       </c>
       <c r="Y3" t="n">
-        <v>182</v>
+        <v>220660.8673</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14344.9</v>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>49</v>
-      </c>
-      <c r="E4" t="n">
-        <v>739</v>
-      </c>
+        <v>3415.6</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>1212288</v>
+        <v>13653367.8</v>
       </c>
       <c r="G4" t="n">
-        <v>130</v>
+        <v>1500.4</v>
       </c>
       <c r="H4" t="n">
-        <v>18692</v>
+        <v>128236.2</v>
       </c>
       <c r="I4" t="n">
-        <v>29</v>
+        <v>166.8</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>505.2</v>
       </c>
       <c r="K4" t="n">
-        <v>1929</v>
+        <v>41437.9</v>
       </c>
       <c r="L4" t="n">
-        <v>3197</v>
+        <v>23618.4</v>
       </c>
       <c r="M4" t="n">
-        <v>368</v>
+        <v>24603.3</v>
       </c>
       <c r="N4" t="n">
-        <v>139931</v>
+        <v>967483.1</v>
       </c>
       <c r="O4" t="n">
-        <v>484</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
+        <v>2016</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5185.6</v>
+      </c>
       <c r="Q4" t="n">
-        <v>1043561</v>
+        <v>12234625</v>
       </c>
       <c r="R4" t="n">
-        <v>42</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
+        <v>102.3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>20.1</v>
+      </c>
       <c r="T4" t="n">
-        <v>167</v>
+        <v>13603</v>
       </c>
       <c r="U4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>274</v>
+        <v>396.4</v>
       </c>
       <c r="W4" t="n">
-        <v>279</v>
+        <v>7176.9</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>32.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>2371</v>
+        <v>184657.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.7</v>
+        <v>753.4</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>89.09999999999999</v>
+        <v>1911.3</v>
       </c>
       <c r="E5" t="n">
-        <v>768.9</v>
+        <v>254.9</v>
       </c>
       <c r="F5" t="n">
-        <v>1588998</v>
+        <v>15330873.6</v>
       </c>
       <c r="G5" t="n">
-        <v>274.3</v>
+        <v>1492.1</v>
       </c>
       <c r="H5" t="n">
-        <v>29203.4</v>
+        <v>135076</v>
       </c>
       <c r="I5" t="n">
-        <v>18.9</v>
+        <v>320</v>
       </c>
       <c r="J5" t="n">
-        <v>57.5</v>
+        <v>2048.8</v>
       </c>
       <c r="K5" t="n">
-        <v>3475.4</v>
+        <v>44132.3</v>
       </c>
       <c r="L5" t="n">
-        <v>3132.1</v>
+        <v>30387.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1379.8</v>
+        <v>21958.8</v>
       </c>
       <c r="N5" t="n">
-        <v>182609</v>
+        <v>1238489.8</v>
       </c>
       <c r="O5" t="n">
-        <v>209.6</v>
+        <v>3850.5</v>
       </c>
       <c r="P5" t="n">
-        <v>343.9</v>
+        <v>4929.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1356365</v>
+        <v>13650822.2</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
+        <v>111.2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>72.7</v>
+      </c>
       <c r="T5" t="n">
-        <v>308.1</v>
+        <v>38272.7</v>
       </c>
       <c r="U5" t="n">
-        <v>33.6</v>
+        <v>13.4</v>
       </c>
       <c r="V5" t="n">
-        <v>323.4</v>
+        <v>427.9</v>
       </c>
       <c r="W5" t="n">
-        <v>318.9</v>
+        <v>5448.4</v>
       </c>
       <c r="X5" t="n">
-        <v>39.1</v>
+        <v>51.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>10026.4</v>
+        <v>150020.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>224.4</v>
+        <v>464.4584</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>87.3</v>
+        <v>2352.2599</v>
       </c>
       <c r="E6" t="n">
-        <v>1042</v>
+        <v>539.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2350430.8</v>
+        <v>15603921.406</v>
       </c>
       <c r="G6" t="n">
-        <v>744.8</v>
+        <v>1478.3545</v>
       </c>
       <c r="H6" t="n">
-        <v>29638</v>
+        <v>203968.976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3</v>
+        <v>1051.8157</v>
       </c>
       <c r="J6" t="n">
-        <v>90.7</v>
+        <v>2112.2968</v>
       </c>
       <c r="K6" t="n">
-        <v>6127.3</v>
+        <v>52327.5458</v>
       </c>
       <c r="L6" t="n">
-        <v>3871.1</v>
+        <v>34013.5268</v>
       </c>
       <c r="M6" t="n">
-        <v>6604</v>
+        <v>42494.4348</v>
       </c>
       <c r="N6" t="n">
-        <v>249058.4</v>
+        <v>1424346.6308</v>
       </c>
       <c r="O6" t="n">
-        <v>627.8</v>
+        <v>2397.8655</v>
       </c>
       <c r="P6" t="n">
-        <v>843.6</v>
+        <v>5430.2057</v>
       </c>
       <c r="Q6" t="n">
-        <v>2039074</v>
+        <v>13677683.7578</v>
       </c>
       <c r="R6" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
+        <v>276.4639</v>
+      </c>
+      <c r="S6" t="n">
+        <v>123.6865</v>
+      </c>
       <c r="T6" t="n">
-        <v>749.2</v>
+        <v>18715.1745</v>
       </c>
       <c r="U6" t="n">
-        <v>24.8</v>
+        <v>5.8599</v>
       </c>
       <c r="V6" t="n">
-        <v>391</v>
+        <v>401.9052</v>
       </c>
       <c r="W6" t="n">
-        <v>686</v>
+        <v>5606.1528</v>
       </c>
       <c r="X6" t="n">
-        <v>35.9</v>
+        <v>105.6619</v>
       </c>
       <c r="Y6" t="n">
-        <v>10457.9</v>
+        <v>128024.6862</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>635</v>
+        <v>1286.8</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>143</v>
+        <v>4646.9</v>
       </c>
       <c r="E7" t="n">
-        <v>1175</v>
+        <v>637.2</v>
       </c>
       <c r="F7" t="n">
-        <v>3090073</v>
+        <v>13335379.2</v>
       </c>
       <c r="G7" t="n">
-        <v>244</v>
+        <v>1345.5</v>
       </c>
       <c r="H7" t="n">
-        <v>37605</v>
+        <v>276164.2</v>
       </c>
       <c r="I7" t="n">
-        <v>68</v>
+        <v>1903.4</v>
       </c>
       <c r="J7" t="n">
-        <v>591</v>
+        <v>1589</v>
       </c>
       <c r="K7" t="n">
-        <v>10168</v>
+        <v>54071.4</v>
       </c>
       <c r="L7" t="n">
-        <v>4527</v>
+        <v>34813.1</v>
       </c>
       <c r="M7" t="n">
-        <v>9356</v>
+        <v>56836.9</v>
       </c>
       <c r="N7" t="n">
-        <v>267944</v>
+        <v>1150283.8</v>
       </c>
       <c r="O7" t="n">
-        <v>294</v>
+        <v>2703.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1673</v>
+        <v>9356.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2725513</v>
+        <v>11381661.4</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
+        <v>189.9</v>
+      </c>
+      <c r="S7" t="n">
+        <v>75.5</v>
+      </c>
       <c r="T7" t="n">
-        <v>828</v>
+        <v>8231.6</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="V7" t="n">
-        <v>572</v>
+        <v>375.1</v>
       </c>
       <c r="W7" t="n">
-        <v>598</v>
+        <v>6325</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>64.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>28097</v>
+        <v>342813</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1095.8084</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>565.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1</v>
+      </c>
       <c r="D8" t="n">
-        <v>118.1138</v>
+        <v>3436.1</v>
       </c>
       <c r="E8" t="n">
-        <v>1309.367</v>
+        <v>784.9</v>
       </c>
       <c r="F8" t="n">
-        <v>3733296.0766</v>
+        <v>12816227.8</v>
       </c>
       <c r="G8" t="n">
-        <v>294.8594</v>
+        <v>2107.4</v>
       </c>
       <c r="H8" t="n">
-        <v>51824.5605</v>
+        <v>227874.7</v>
       </c>
       <c r="I8" t="n">
-        <v>68.5732</v>
+        <v>1921.6</v>
       </c>
       <c r="J8" t="n">
-        <v>201.7251</v>
+        <v>441.9</v>
       </c>
       <c r="K8" t="n">
-        <v>12987.4364</v>
+        <v>46282.9</v>
       </c>
       <c r="L8" t="n">
-        <v>6922.5061</v>
+        <v>40123.4</v>
       </c>
       <c r="M8" t="n">
-        <v>18284.4943</v>
+        <v>58918.9</v>
       </c>
       <c r="N8" t="n">
-        <v>293421.1554</v>
+        <v>1190891.2</v>
       </c>
       <c r="O8" t="n">
-        <v>375.3958</v>
+        <v>3035.1</v>
       </c>
       <c r="P8" t="n">
-        <v>2056.9397</v>
+        <v>5840.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>3294818.1634</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+        <v>10822241.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>77.2</v>
+      </c>
       <c r="T8" t="n">
-        <v>1937.5497</v>
+        <v>6875.1</v>
       </c>
       <c r="U8" t="n">
-        <v>13</v>
+        <v>0.4</v>
       </c>
       <c r="V8" t="n">
-        <v>474.0011</v>
+        <v>280.7</v>
       </c>
       <c r="W8" t="n">
-        <v>1296.2702</v>
+        <v>7038.7</v>
       </c>
       <c r="X8" t="n">
-        <v>53.4737</v>
+        <v>261.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>45737.8186</v>
+        <v>397086.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>669.696</v>
+        <v>1835.4</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>1668.8163</v>
+        <v>1580.4</v>
       </c>
       <c r="E9" t="n">
-        <v>1028.77</v>
+        <v>388.4</v>
       </c>
       <c r="F9" t="n">
-        <v>4951455.4515</v>
+        <v>15915877</v>
       </c>
       <c r="G9" t="n">
-        <v>949.2322</v>
+        <v>3794.3</v>
       </c>
       <c r="H9" t="n">
-        <v>68098.4382</v>
+        <v>284532.6</v>
       </c>
       <c r="I9" t="n">
-        <v>74.2677</v>
+        <v>1683.5</v>
       </c>
       <c r="J9" t="n">
-        <v>297.6035</v>
+        <v>1318.5</v>
       </c>
       <c r="K9" t="n">
-        <v>19251.6639</v>
+        <v>64740.1</v>
       </c>
       <c r="L9" t="n">
-        <v>6625.4708</v>
+        <v>38301.7</v>
       </c>
       <c r="M9" t="n">
-        <v>40839.5179</v>
+        <v>87999.8</v>
       </c>
       <c r="N9" t="n">
-        <v>369792.2268</v>
+        <v>1449120.1</v>
       </c>
       <c r="O9" t="n">
-        <v>736.0572</v>
+        <v>2852.6</v>
       </c>
       <c r="P9" t="n">
-        <v>2816.6732</v>
+        <v>6472.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>4382999.6907</v>
+        <v>13644734.9</v>
       </c>
       <c r="R9" t="n">
-        <v>4.0306</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
+        <v>69.90000000000001</v>
+      </c>
+      <c r="S9" t="n">
+        <v>30.4</v>
+      </c>
       <c r="T9" t="n">
-        <v>2134.6649</v>
+        <v>7982.4</v>
       </c>
       <c r="U9" t="n">
-        <v>19.8746</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>359.5186</v>
+        <v>305</v>
       </c>
       <c r="W9" t="n">
-        <v>1184.5794</v>
+        <v>6440.8</v>
       </c>
       <c r="X9" t="n">
-        <v>175.1851</v>
+        <v>223.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>51725.2048</v>
+        <v>311467.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4625.0585</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>1243.4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2</v>
+      </c>
       <c r="D10" t="n">
-        <v>246.249</v>
+        <v>1793.9</v>
       </c>
       <c r="E10" t="n">
-        <v>738.7159</v>
+        <v>1775.1</v>
       </c>
       <c r="F10" t="n">
-        <v>6611438.8766</v>
+        <v>17864025.9</v>
       </c>
       <c r="G10" t="n">
-        <v>425.2686</v>
+        <v>4031.6</v>
       </c>
       <c r="H10" t="n">
-        <v>85926.9129</v>
+        <v>361142.1</v>
       </c>
       <c r="I10" t="n">
-        <v>311.721</v>
+        <v>1376.6</v>
       </c>
       <c r="J10" t="n">
-        <v>266.7043</v>
+        <v>768.9</v>
       </c>
       <c r="K10" t="n">
-        <v>22688.816</v>
+        <v>74755.7</v>
       </c>
       <c r="L10" t="n">
-        <v>9200.966199999999</v>
+        <v>48198</v>
       </c>
       <c r="M10" t="n">
-        <v>16420.1322</v>
+        <v>122780.3</v>
       </c>
       <c r="N10" t="n">
-        <v>440187.7527</v>
+        <v>1685802.8</v>
       </c>
       <c r="O10" t="n">
-        <v>798.3284</v>
+        <v>2506.6</v>
       </c>
       <c r="P10" t="n">
-        <v>2992.12</v>
+        <v>8230.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>5968239.7065</v>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+        <v>15314073.2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>203.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>29.8</v>
+      </c>
       <c r="T10" t="n">
-        <v>3507.6245</v>
+        <v>7910.1</v>
       </c>
       <c r="U10" t="n">
-        <v>38.1398</v>
+        <v>9.5</v>
       </c>
       <c r="V10" t="n">
-        <v>392.4381</v>
+        <v>222.3</v>
       </c>
       <c r="W10" t="n">
-        <v>2786.5198</v>
+        <v>7111.9</v>
       </c>
       <c r="X10" t="n">
-        <v>99.7984</v>
+        <v>198.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>45696.359</v>
+        <v>219860.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>607</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>2176.4265</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14.4787</v>
+      </c>
       <c r="D11" t="n">
-        <v>394</v>
+        <v>2110.1021</v>
       </c>
       <c r="E11" t="n">
-        <v>558</v>
+        <v>4350.175</v>
       </c>
       <c r="F11" t="n">
-        <v>6759084</v>
+        <v>19673316.8103</v>
       </c>
       <c r="G11" t="n">
-        <v>860</v>
+        <v>3122.037</v>
       </c>
       <c r="H11" t="n">
-        <v>88528</v>
+        <v>382436.3226</v>
       </c>
       <c r="I11" t="n">
-        <v>130</v>
+        <v>1868.4681</v>
       </c>
       <c r="J11" t="n">
-        <v>730</v>
+        <v>4440.8403</v>
       </c>
       <c r="K11" t="n">
-        <v>19424</v>
+        <v>55937.5586</v>
       </c>
       <c r="L11" t="n">
-        <v>9713</v>
+        <v>36471.2543</v>
       </c>
       <c r="M11" t="n">
-        <v>18883</v>
+        <v>124387.3854</v>
       </c>
       <c r="N11" t="n">
-        <v>456352</v>
+        <v>1829428.593</v>
       </c>
       <c r="O11" t="n">
-        <v>805</v>
+        <v>2957.2815</v>
       </c>
       <c r="P11" t="n">
-        <v>2739</v>
+        <v>10543.8742</v>
       </c>
       <c r="Q11" t="n">
-        <v>6012996.8288</v>
+        <v>16951921.9651</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
+        <v>125.295</v>
+      </c>
+      <c r="S11" t="n">
+        <v>71.5056</v>
+      </c>
       <c r="T11" t="n">
-        <v>4881</v>
+        <v>9182.6456</v>
       </c>
       <c r="U11" t="n">
-        <v>17</v>
+        <v>3.0695</v>
       </c>
       <c r="V11" t="n">
-        <v>323</v>
+        <v>85.7024</v>
       </c>
       <c r="W11" t="n">
-        <v>4487</v>
+        <v>8828.9756</v>
       </c>
       <c r="X11" t="n">
-        <v>40</v>
+        <v>48.5663</v>
       </c>
       <c r="Y11" t="n">
-        <v>136613</v>
+        <v>242802.2621</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>841.7</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>1615.3237</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.06900000000000001</v>
+      </c>
       <c r="D12" t="n">
-        <v>1139.1</v>
+        <v>2463.034</v>
       </c>
       <c r="E12" t="n">
-        <v>274.3</v>
+        <v>5105.8066</v>
       </c>
       <c r="F12" t="n">
-        <v>9903469.4</v>
+        <v>19834981.6923</v>
       </c>
       <c r="G12" t="n">
-        <v>668.2</v>
+        <v>2812.6037</v>
       </c>
       <c r="H12" t="n">
-        <v>112964.7</v>
+        <v>319371.6086</v>
       </c>
       <c r="I12" t="n">
-        <v>199.7</v>
+        <v>2409.1099</v>
       </c>
       <c r="J12" t="n">
-        <v>489.5</v>
+        <v>812.8605</v>
       </c>
       <c r="K12" t="n">
-        <v>31546.8</v>
+        <v>47184.2028</v>
       </c>
       <c r="L12" t="n">
-        <v>12858.7</v>
+        <v>34571.9037</v>
       </c>
       <c r="M12" t="n">
-        <v>46388.2</v>
+        <v>129124.3051</v>
       </c>
       <c r="N12" t="n">
-        <v>652741.1</v>
+        <v>1812914.9863</v>
       </c>
       <c r="O12" t="n">
-        <v>976</v>
+        <v>3395.6344</v>
       </c>
       <c r="P12" t="n">
-        <v>3270.9</v>
+        <v>10382.4087</v>
       </c>
       <c r="Q12" t="n">
-        <v>8834231.6</v>
+        <v>17116225.5057</v>
       </c>
       <c r="R12" t="n">
-        <v>2.2</v>
+        <v>202.0817</v>
       </c>
       <c r="S12" t="n">
-        <v>28</v>
+        <v>88.18640000000001</v>
       </c>
       <c r="T12" t="n">
-        <v>2326.4</v>
+        <v>8034.8582</v>
       </c>
       <c r="U12" t="n">
-        <v>35.4</v>
+        <v>0.5936</v>
       </c>
       <c r="V12" t="n">
-        <v>329.4</v>
+        <v>51.4679</v>
       </c>
       <c r="W12" t="n">
-        <v>7007.5</v>
+        <v>8788.1849</v>
       </c>
       <c r="X12" t="n">
-        <v>22.8</v>
+        <v>197.3566</v>
       </c>
       <c r="Y12" t="n">
-        <v>195127</v>
+        <v>329229.4875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1493.9193</v>
+        <v>4647</v>
       </c>
       <c r="C13" t="n">
-        <v>5.5482</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>1316.5898</v>
+        <v>3905</v>
       </c>
       <c r="E13" t="n">
-        <v>209.8277</v>
+        <v>13030</v>
       </c>
       <c r="F13" t="n">
-        <v>12982165.1181</v>
+        <v>26478391</v>
       </c>
       <c r="G13" t="n">
-        <v>502.8129</v>
+        <v>3755</v>
       </c>
       <c r="H13" t="n">
-        <v>126824.4653</v>
+        <v>405061</v>
       </c>
       <c r="I13" t="n">
-        <v>119.9006</v>
+        <v>3666</v>
       </c>
       <c r="J13" t="n">
-        <v>570.4239</v>
+        <v>606</v>
       </c>
       <c r="K13" t="n">
-        <v>37948.32739999999</v>
+        <v>48775</v>
       </c>
       <c r="L13" t="n">
-        <v>17240.3165</v>
+        <v>45294</v>
       </c>
       <c r="M13" t="n">
-        <v>21600.9027</v>
+        <v>127202</v>
       </c>
       <c r="N13" t="n">
-        <v>871801.0223</v>
+        <v>2471661</v>
       </c>
       <c r="O13" t="n">
-        <v>1332.4365</v>
+        <v>5369</v>
       </c>
       <c r="P13" t="n">
-        <v>4342.7907</v>
+        <v>13609</v>
       </c>
       <c r="Q13" t="n">
-        <v>11658308.7116</v>
+        <v>22990917</v>
       </c>
       <c r="R13" t="n">
-        <v>19.3546</v>
+        <v>1139</v>
       </c>
       <c r="S13" t="n">
-        <v>56.3034</v>
+        <v>244</v>
       </c>
       <c r="T13" t="n">
-        <v>13625.3948</v>
+        <v>9947</v>
       </c>
       <c r="U13" t="n">
-        <v>19.5909</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>345.1841</v>
+        <v>77</v>
       </c>
       <c r="W13" t="n">
-        <v>3784.3261</v>
+        <v>10293</v>
       </c>
       <c r="X13" t="n">
-        <v>35.7568</v>
+        <v>96</v>
       </c>
       <c r="Y13" t="n">
-        <v>220660.8673</v>
+        <v>319060</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>14344.9</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>3415.6</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>13653367.8</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1500.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>128236.2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>166.8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>505.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>41437.9</v>
-      </c>
-      <c r="L14" t="n">
-        <v>23618.4</v>
-      </c>
-      <c r="M14" t="n">
-        <v>24603.3</v>
-      </c>
-      <c r="N14" t="n">
-        <v>967483.1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2016</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5185.6</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
-        <v>12234625</v>
-      </c>
-      <c r="R14" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="T14" t="n">
-        <v>13603</v>
-      </c>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
-      <c r="V14" t="n">
-        <v>396.4</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7176.9</v>
-      </c>
-      <c r="X14" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>184657.9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>753.4</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>1911.3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>254.9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>15330873.6</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1492.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>135076</v>
-      </c>
-      <c r="I15" t="n">
-        <v>320</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2048.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>44132.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>30387.4</v>
-      </c>
-      <c r="M15" t="n">
-        <v>21958.8</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1238489.8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3850.5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4929.7</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>13650822.2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>111.2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="T15" t="n">
-        <v>38272.7</v>
-      </c>
-      <c r="U15" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="V15" t="n">
-        <v>427.9</v>
-      </c>
-      <c r="W15" t="n">
-        <v>5448.4</v>
-      </c>
-      <c r="X15" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>150020.8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>464.4584</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>2352.2599</v>
-      </c>
-      <c r="E16" t="n">
-        <v>539.7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>15603921.406</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1478.3545</v>
-      </c>
-      <c r="H16" t="n">
-        <v>203968.976</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1051.8157</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2112.2968</v>
-      </c>
-      <c r="K16" t="n">
-        <v>52327.5458</v>
-      </c>
-      <c r="L16" t="n">
-        <v>34013.5268</v>
-      </c>
-      <c r="M16" t="n">
-        <v>42494.4348</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1424346.6308</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2397.8655</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5430.2057</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>13677683.7578</v>
-      </c>
-      <c r="R16" t="n">
-        <v>276.4639</v>
-      </c>
-      <c r="S16" t="n">
-        <v>123.6865</v>
-      </c>
-      <c r="T16" t="n">
-        <v>18715.1745</v>
-      </c>
-      <c r="U16" t="n">
-        <v>5.8599</v>
-      </c>
-      <c r="V16" t="n">
-        <v>401.9052</v>
-      </c>
-      <c r="W16" t="n">
-        <v>5606.1528</v>
-      </c>
-      <c r="X16" t="n">
-        <v>105.6619</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>128024.6862</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1286.8</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>4646.9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>637.2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>13335379.2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1345.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>276164.2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1903.4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1589</v>
-      </c>
-      <c r="K17" t="n">
-        <v>54071.4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>34813.1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>56836.9</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1150283.8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2703.5</v>
-      </c>
-      <c r="P17" t="n">
-        <v>9356.4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>11381661.4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="S17" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>8231.6</v>
-      </c>
-      <c r="U17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>375.1</v>
-      </c>
-      <c r="W17" t="n">
-        <v>6325</v>
-      </c>
-      <c r="X17" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>342813</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>565.3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3436.1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>784.9</v>
-      </c>
-      <c r="F18" t="n">
-        <v>12816227.8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2107.4</v>
-      </c>
-      <c r="H18" t="n">
-        <v>227874.7</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1921.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>441.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>46282.9</v>
-      </c>
-      <c r="L18" t="n">
-        <v>40123.4</v>
-      </c>
-      <c r="M18" t="n">
-        <v>58918.9</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1190891.2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>3035.1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5840.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>10822241.4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="S18" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>6875.1</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="V18" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="W18" t="n">
-        <v>7038.7</v>
-      </c>
-      <c r="X18" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>397086.7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1835.4</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>1580.4</v>
-      </c>
-      <c r="E19" t="n">
-        <v>388.4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>15915877</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3794.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>284532.6</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1683.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1318.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>64740.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>38301.7</v>
-      </c>
-      <c r="M19" t="n">
-        <v>87999.8</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1449120.1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2852.6</v>
-      </c>
-      <c r="P19" t="n">
-        <v>6472.3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>13644734.9</v>
-      </c>
-      <c r="R19" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="S19" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>7982.4</v>
-      </c>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
-      <c r="V19" t="n">
-        <v>305</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6440.8</v>
-      </c>
-      <c r="X19" t="n">
-        <v>223.1</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>311467.7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1243.4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1793.9</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1775.1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>17864025.9</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4031.6</v>
-      </c>
-      <c r="H20" t="n">
-        <v>361142.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1376.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>768.9</v>
-      </c>
-      <c r="K20" t="n">
-        <v>74755.7</v>
-      </c>
-      <c r="L20" t="n">
-        <v>48198</v>
-      </c>
-      <c r="M20" t="n">
-        <v>122780.3</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1685802.8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2506.6</v>
-      </c>
-      <c r="P20" t="n">
-        <v>8230.1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>15314073.2</v>
-      </c>
-      <c r="R20" t="n">
-        <v>203.2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="T20" t="n">
-        <v>7910.1</v>
-      </c>
-      <c r="U20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V20" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="W20" t="n">
-        <v>7111.9</v>
-      </c>
-      <c r="X20" t="n">
-        <v>198.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>219860.9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2176.4265</v>
-      </c>
-      <c r="C21" t="n">
-        <v>14.4787</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2110.1021</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4350.175</v>
-      </c>
-      <c r="F21" t="n">
-        <v>19673316.8103</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3122.037</v>
-      </c>
-      <c r="H21" t="n">
-        <v>382436.3226</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1868.4681</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4440.8403</v>
-      </c>
-      <c r="K21" t="n">
-        <v>55937.5586</v>
-      </c>
-      <c r="L21" t="n">
-        <v>36471.2543</v>
-      </c>
-      <c r="M21" t="n">
-        <v>124387.3854</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1829428.593</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2957.2815</v>
-      </c>
-      <c r="P21" t="n">
-        <v>10543.8742</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>16951921.9651</v>
-      </c>
-      <c r="R21" t="n">
-        <v>125.295</v>
-      </c>
-      <c r="S21" t="n">
-        <v>71.5056</v>
-      </c>
-      <c r="T21" t="n">
-        <v>9182.6456</v>
-      </c>
-      <c r="U21" t="n">
-        <v>3.0695</v>
-      </c>
-      <c r="V21" t="n">
-        <v>85.7024</v>
-      </c>
-      <c r="W21" t="n">
-        <v>8828.9756</v>
-      </c>
-      <c r="X21" t="n">
-        <v>48.5663</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>242802.2621</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1615.3237</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2463.034</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5105.8066</v>
-      </c>
-      <c r="F22" t="n">
-        <v>19834981.6923</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2812.6037</v>
-      </c>
-      <c r="H22" t="n">
-        <v>319371.6086</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2409.1099</v>
-      </c>
-      <c r="J22" t="n">
-        <v>812.8605</v>
-      </c>
-      <c r="K22" t="n">
-        <v>47184.2028</v>
-      </c>
-      <c r="L22" t="n">
-        <v>34571.9037</v>
-      </c>
-      <c r="M22" t="n">
-        <v>129124.3051</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1812914.9863</v>
-      </c>
-      <c r="O22" t="n">
-        <v>3395.6344</v>
-      </c>
-      <c r="P22" t="n">
-        <v>10382.4087</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>17116225.5057</v>
-      </c>
-      <c r="R22" t="n">
-        <v>202.0817</v>
-      </c>
-      <c r="S22" t="n">
-        <v>88.18640000000001</v>
-      </c>
-      <c r="T22" t="n">
-        <v>8034.8582</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.5936</v>
-      </c>
-      <c r="V22" t="n">
-        <v>51.4679</v>
-      </c>
-      <c r="W22" t="n">
-        <v>8788.1849</v>
-      </c>
-      <c r="X22" t="n">
-        <v>197.3566</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>329229.4875</v>
-      </c>
+        <v>22091853.5844</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
